--- a/Notatki/Semestr 3/Inżynierskie zastosowania statystyki/Ćwiczenia/Kolokwium 2/IZS kolos.xlsx
+++ b/Notatki/Semestr 3/Inżynierskie zastosowania statystyki/Ćwiczenia/Kolokwium 2/IZS kolos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xeder\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xeder\Documents\notes\Studia\Notatki\Semestr 3\Inżynierskie zastosowania statystyki\Ćwiczenia\Kolokwium 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97280342-CBD1-4C06-BA03-6C381F060DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB123324-8536-4D49-B7BD-032BD20862F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="1" activeTab="5" xr2:uid="{EEEA31D6-0E80-4109-8014-5AC21CA1198A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="9" xr2:uid="{EEEA31D6-0E80-4109-8014-5AC21CA1198A}"/>
   </bookViews>
   <sheets>
     <sheet name="SWO" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="T 2S" sheetId="4" r:id="rId4"/>
     <sheet name="T 2S T" sheetId="5" r:id="rId5"/>
     <sheet name="T R2S" sheetId="6" r:id="rId6"/>
+    <sheet name="Phi2" sheetId="7" r:id="rId7"/>
+    <sheet name="FS W" sheetId="8" r:id="rId8"/>
+    <sheet name="Phi2 Kat" sheetId="9" r:id="rId9"/>
+    <sheet name="Korel" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +44,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>średnia</t>
   </si>
@@ -122,13 +148,139 @@
   </si>
   <si>
     <t>zależne</t>
+  </si>
+  <si>
+    <t>st. Sw</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>zakładamy że niezależne</t>
+  </si>
+  <si>
+    <t>przyjmujemy że wariancje są równe</t>
+  </si>
+  <si>
+    <t>populacja1</t>
+  </si>
+  <si>
+    <t>populacja2</t>
+  </si>
+  <si>
+    <t>fteoretyczne&lt;fobliczone odrzycamy</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>fteoret</t>
+  </si>
+  <si>
+    <t>n w kat</t>
+  </si>
+  <si>
+    <t>p w kat</t>
+  </si>
+  <si>
+    <t>teoretycz</t>
+  </si>
+  <si>
+    <t>pon</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>czw</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>statystyka</t>
+  </si>
+  <si>
+    <t>st. Swobody</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>yi</t>
+  </si>
+  <si>
+    <t>odch</t>
+  </si>
+  <si>
+    <t>x-sr</t>
+  </si>
+  <si>
+    <t>y-sr</t>
+  </si>
+  <si>
+    <t>(x-sr)(y-sr)</t>
+  </si>
+  <si>
+    <t>(x-sr)^2</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>(y-sr)^2</t>
+  </si>
+  <si>
+    <t>regresja liniowa</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>srx</t>
+  </si>
+  <si>
+    <t>sry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="188" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,12 +290,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,13 +313,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -175,6 +337,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>451062</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62687C2F-A785-F141-A524-A243E3109042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12179300" y="177800"/>
+          <a:ext cx="4121362" cy="1987652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,7 +691,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,6 +753,1602 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1508AC97-4121-45DE-ABE9-0F891B0B410A}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:P100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="15.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f>AVERAGE(A6:A100)</f>
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(B6:B100)</f>
+        <v>46.428571428571431</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f>SQRT(_xlfn.VAR.P(A6:A100))</f>
+        <v>3.0509951538098923</v>
+      </c>
+      <c r="B4">
+        <f>SQRT(_xlfn.VAR.P(B6:B100))</f>
+        <v>4.0304959941902521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>83.1</v>
+      </c>
+      <c r="B6">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <f>A6-$A$2</f>
+        <v>-2.9000000000000057</v>
+      </c>
+      <c r="D6">
+        <f>B6-$B$2</f>
+        <v>-5.4285714285714306</v>
+      </c>
+      <c r="E6">
+        <f>C6*D6</f>
+        <v>15.742857142857179</v>
+      </c>
+      <c r="F6">
+        <f>C6^2</f>
+        <v>8.4100000000000321</v>
+      </c>
+      <c r="G6">
+        <f>D6^2</f>
+        <v>29.469387755102062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>88.2</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C10" si="0">A7-$A$2</f>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D10" si="1">B7-$B$2</f>
+        <v>-1.4285714285714306</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E70" si="2">C7*D7</f>
+        <v>-3.1428571428571512</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F70" si="3">C7^2</f>
+        <v>4.8400000000000123</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G70" si="4">D7^2</f>
+        <v>2.0408163265306181</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7">
+        <f>SUM(E6:E100)/SQRT(SUM(F6:F100)*SUM(G6:G100))</f>
+        <v>4.6468851589174104E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>87.3</v>
+      </c>
+      <c r="B8">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999972</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-4.4285714285714306</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>-5.7571428571428473</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>1.6899999999999926</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>19.612244897959201</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>90.4</v>
+      </c>
+      <c r="B9">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>5.5714285714285694</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>24.514285714285737</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>19.360000000000049</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>31.040816326530589</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="B10">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-5.4000000000000057</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>5.5714285714285694</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>-30.085714285714307</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>29.160000000000061</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>31.040816326530589</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <f>SUM(E6:E100)/SUM(F6:F100)</f>
+        <v>6.1387354205039747E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>87.1</v>
+      </c>
+      <c r="B11">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C12" si="5">A11-$A$2</f>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D12" si="6">B11-$B$2</f>
+        <v>-0.4285714285714306</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>-0.47142857142857125</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>1.2099999999999875</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>0.18367346938775683</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11">
+        <f>B2-K10*A2</f>
+        <v>45.90064018240809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>85.3</v>
+      </c>
+      <c r="B12">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="5"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="6"/>
+        <v>0.5714285714285694</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>-0.40000000000000019</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.49000000000000399</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0.32653061224489566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>_xlfn.COVARIANCE.P(A6:A10,B6:B10)</f>
+        <v>0.25200000000000811</v>
+      </c>
+      <c r="M23">
+        <f>RSQ(B6:B10,A6:A10)</f>
+        <v>2.2111267866451768E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>_xlfn.COVARIANCE.S(A6:A10,B6:B10)</f>
+        <v>0.31500000000001016</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" cm="1">
+        <f t="array" ref="N29:O33">LINEST(B6:B10,A6:A10,TRUE,TRUE)</f>
+        <v>1.9865043829224278E-2</v>
+      </c>
+      <c r="O29">
+        <v>44.693195434193051</v>
+      </c>
+      <c r="P29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0.77121249624721822</v>
+      </c>
+      <c r="O30">
+        <v>66.319485812827196</v>
+      </c>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31">
+        <v>2.2111267866451988E-4</v>
+      </c>
+      <c r="O31">
+        <v>6.1420672427876477</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>6.6348474088186908E-4</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>2.5029955224823652E-2</v>
+      </c>
+      <c r="O33">
+        <v>113.17497004477518</v>
+      </c>
+      <c r="P33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <f t="shared" ref="E71:E100" si="7">C71*D71</f>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71:F100" si="8">C71^2</f>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71:G100" si="9">D71^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -857,9 +2664,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625110F9-3B32-4BB9-921E-EB11FF110CEF}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -931,4 +2741,1751 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B015D2-0ACA-46E3-8873-6B1993D8AD62}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:T27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>2</v>
+      </c>
+      <c r="P1">
+        <v>3</v>
+      </c>
+      <c r="Q1">
+        <v>4</v>
+      </c>
+      <c r="R1">
+        <v>5</v>
+      </c>
+      <c r="S1">
+        <v>6</v>
+      </c>
+      <c r="T1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <f>SUM(B2:H2)</f>
+        <v>17</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>$I2*B$9/$I$9</f>
+        <v>3.9666666666666668</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:T2" si="0">$I2*C$9/$I$9</f>
+        <v>6.5166666666666666</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>6.5166666666666666</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="1">SUM(B3:H3)</f>
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N8" si="2">$I3*B$9/$I$9</f>
+        <v>5.1333333333333337</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O8" si="3">$I3*C$9/$I$9</f>
+        <v>8.4333333333333336</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P8" si="4">$I3*D$9/$I$9</f>
+        <v>8.4333333333333336</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q8" si="5">$I3*E$9/$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R8" si="6">$I3*F$9/$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S8" si="7">$I3*G$9/$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T8" si="8">$I3*H$9/$I$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <f>SUM(B8:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <f>SUM(B2:B8)</f>
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:H9" si="9">SUM(C2:C8)</f>
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>SUM(B2:H8)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <f>IF(N2&lt;&gt;0,((B2-N2)^2/N2),0)</f>
+        <v>6.3868347338935569</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:P18" si="10">IF(O2&lt;&gt;0,((C2-O2)^2/O2),0)</f>
+        <v>0.35298380221653874</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="10"/>
+        <v>1.8977408354646206</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <f t="shared" ref="J19:J24" si="11">IF(N3&lt;&gt;0,((B3-N3)^2/N3),0)</f>
+        <v>0.25021645021645039</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K24" si="12">IF(O3&lt;&gt;0,((C3-O3)^2/O3),0)</f>
+        <v>1.5084321475625821</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L24" si="13">IF(P3&lt;&gt;0,((D3-P3)^2/P3),0)</f>
+        <v>0.70210803689064571</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M24" si="14">IF(Q3&lt;&gt;0,((E3-Q3)^2/Q3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N24" si="15">IF(R3&lt;&gt;0,((F3-R3)^2/R3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O24" si="16">IF(S3&lt;&gt;0,((G3-S3)^2/S3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P24" si="17">IF(T3&lt;&gt;0,((H3-T3)^2/T3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <f t="shared" si="11"/>
+        <v>3.1040816326530614</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="12"/>
+        <v>0.52204968944099417</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="13"/>
+        <v>4.3978260869565204</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="P25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25">
+        <f>SUM(J18:P24)</f>
+        <v>19.12227341529497</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26">
+        <f>(COUNTA(B2:H2)-1)*(COUNTA(B2:B8)-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="P27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA57ECC3-C070-4CF1-A957-CD909F2A75D6}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1">
+        <v>2.5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <f>IF(B1&gt;F1,B1/F1,F1/B1)</f>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <f>IF(B1&gt;F1,B2-1,F2-1)</f>
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <f>IF(B1&gt;F1,F2-1,B2-1)</f>
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2DC027-05BA-46E2-96B6-737D7EC602D6}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A3:F100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <f xml:space="preserve"> SUM(B8:B100)</f>
+        <v>740</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f>COUNTA(A8:A100)-1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <f>C8*$B$6</f>
+        <v>148</v>
+      </c>
+      <c r="E8">
+        <f>IF(D8&lt;&gt;0,(B8-D8)^2/D8,0)</f>
+        <v>18.27027027027027</v>
+      </c>
+      <c r="F8">
+        <f>SUM(E8:E13)</f>
+        <v>35.675675675675677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>160</v>
+      </c>
+      <c r="C9">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D72" si="0">C9*$B$6</f>
+        <v>148</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E72" si="1">IF(D9&lt;&gt;0,(B9-D9)^2/D9,0)</f>
+        <v>0.97297297297297303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>140</v>
+      </c>
+      <c r="C10">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.43243243243243246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>140</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C12" si="2">1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.43243243243243246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>15.567567567567568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D73">
+        <f t="shared" ref="D73:D100" si="3">C73*$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73:E100" si="4">IF(D73&lt;&gt;0,(B73-D73)^2/D73,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Notatki/Semestr 3/Inżynierskie zastosowania statystyki/Ćwiczenia/Kolokwium 2/IZS kolos.xlsx
+++ b/Notatki/Semestr 3/Inżynierskie zastosowania statystyki/Ćwiczenia/Kolokwium 2/IZS kolos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xeder\Documents\notes\Studia\Notatki\Semestr 3\Inżynierskie zastosowania statystyki\Ćwiczenia\Kolokwium 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB123324-8536-4D49-B7BD-032BD20862F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE29DF6-8C6D-439D-A05B-1930438C80E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="9" xr2:uid="{EEEA31D6-0E80-4109-8014-5AC21CA1198A}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>średnia</t>
   </si>
@@ -247,6 +247,21 @@
   </si>
   <si>
     <t>sry</t>
+  </si>
+  <si>
+    <t>cov</t>
+  </si>
+  <si>
+    <t>czy są niezależne</t>
+  </si>
+  <si>
+    <t>wariancje</t>
+  </si>
+  <si>
+    <t>cechy</t>
+  </si>
+  <si>
+    <t>rozkłądy</t>
   </si>
 </sst>
 </file>
@@ -255,7 +270,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="188" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -320,7 +335,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
@@ -691,7 +706,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -764,7 +779,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -780,15 +795,22 @@
         <v>41</v>
       </c>
       <c r="D1" s="1"/>
+      <c r="E1">
+        <f>SUM(E6:E100)/COUNTA(A6:A100)</f>
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>AVERAGE(A6:A100)</f>
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <f>AVERAGE(B6:B100)</f>
-        <v>46.428571428571431</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -803,11 +825,11 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>SQRT(_xlfn.VAR.P(A6:A100))</f>
-        <v>3.0509951538098923</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="B4">
         <f>SQRT(_xlfn.VAR.P(B6:B100))</f>
-        <v>4.0304959941902521</v>
+        <v>8.9442719099991592</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -835,123 +857,132 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>83.1</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <f>A6-$A$2</f>
-        <v>-2.9000000000000057</v>
+        <v>-2</v>
       </c>
       <c r="D6">
         <f>B6-$B$2</f>
-        <v>-5.4285714285714306</v>
+        <v>-10</v>
       </c>
       <c r="E6">
         <f>C6*D6</f>
-        <v>15.742857142857179</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <f>C6^2</f>
-        <v>8.4100000000000321</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <f>D6^2</f>
-        <v>29.469387755102062</v>
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6">
+        <f>E1/(A4*B4)</f>
+        <v>0.94868329805051377</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>88.2</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C10" si="0">A7-$A$2</f>
-        <v>2.2000000000000028</v>
+        <v>-1</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:D10" si="1">B7-$B$2</f>
-        <v>-1.4285714285714306</v>
+        <v>-10</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E70" si="2">C7*D7</f>
-        <v>-3.1428571428571512</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F70" si="3">C7^2</f>
-        <v>4.8400000000000123</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G70" si="4">D7^2</f>
-        <v>2.0408163265306181</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="L7">
         <f>SUM(E6:E100)/SQRT(SUM(F6:F100)*SUM(G6:G100))</f>
-        <v>4.6468851589174104E-3</v>
+        <v>0.94868329805051377</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>87.3</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>-4.4285714285714306</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>-5.7571428571428473</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>1.6899999999999926</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
-        <v>19.612244897959201</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>90.4</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>4.4000000000000057</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>5.5714285714285694</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>24.514285714285737</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>19.360000000000049</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
-        <v>31.040816326530589</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
         <v>55</v>
@@ -959,100 +990,72 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>80.599999999999994</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-5.4000000000000057</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>5.5714285714285694</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>-30.085714285714307</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>29.160000000000061</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
-        <v>31.040816326530589</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
         <v>56</v>
       </c>
       <c r="K10">
         <f>SUM(E6:E100)/SUM(F6:F100)</f>
-        <v>6.1387354205039747E-3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>87.1</v>
-      </c>
-      <c r="B11">
-        <v>46</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:C12" si="5">A11-$A$2</f>
-        <v>1.0999999999999943</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ref="D11:D12" si="6">B11-$B$2</f>
-        <v>-0.4285714285714306</v>
-      </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>-0.47142857142857125</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>1.2099999999999875</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
-        <v>0.18367346938775683</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>57</v>
       </c>
       <c r="K11">
         <f>B2-K10*A2</f>
-        <v>45.90064018240809</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>85.3</v>
-      </c>
-      <c r="B12">
-        <v>47</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="5"/>
-        <v>-0.70000000000000284</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="6"/>
-        <v>0.5714285714285694</v>
-      </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>-0.40000000000000019</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>0.49000000000000399</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>0.32653061224489566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1210,11 +1213,11 @@
       </c>
       <c r="L23">
         <f>_xlfn.COVARIANCE.P(A6:A10,B6:B10)</f>
-        <v>0.25200000000000811</v>
+        <v>12</v>
       </c>
       <c r="M23">
         <f>RSQ(B6:B10,A6:A10)</f>
-        <v>2.2111267866451768E-4</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.35">
@@ -1232,7 +1235,7 @@
       </c>
       <c r="L24">
         <f>_xlfn.COVARIANCE.S(A6:A10,B6:B10)</f>
-        <v>0.31500000000001016</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.35">
@@ -1309,10 +1312,10 @@
       </c>
       <c r="N29" cm="1">
         <f t="array" ref="N29:O33">LINEST(B6:B10,A6:A10,TRUE,TRUE)</f>
-        <v>1.9865043829224278E-2</v>
+        <v>6</v>
       </c>
       <c r="O29">
-        <v>44.693195434193051</v>
+        <v>22</v>
       </c>
       <c r="P29" t="s">
         <v>57</v>
@@ -1332,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0.77121249624721822</v>
+        <v>1.1547005383792512</v>
       </c>
       <c r="O30">
-        <v>66.319485812827196</v>
+        <v>3.8297084310253515</v>
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.35">
@@ -1355,10 +1358,10 @@
         <v>53</v>
       </c>
       <c r="N31">
-        <v>2.2111267866451988E-4</v>
+        <v>0.9</v>
       </c>
       <c r="O31">
-        <v>6.1420672427876477</v>
+        <v>3.6514837167011067</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.35">
@@ -1375,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>6.6348474088186908E-4</v>
+        <v>27.000000000000011</v>
       </c>
       <c r="O32">
         <v>3</v>
@@ -1398,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2.5029955224823652E-2</v>
+        <v>360</v>
       </c>
       <c r="O33">
-        <v>113.17497004477518</v>
+        <v>39.999999999999986</v>
       </c>
       <c r="P33" t="s">
         <v>59</v>
@@ -1927,421 +1930,421 @@
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E71">
-        <f t="shared" ref="E71:E100" si="7">C71*D71</f>
+        <f t="shared" ref="E71:E100" si="5">C71*D71</f>
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" ref="F71:F100" si="8">C71^2</f>
+        <f t="shared" ref="F71:F100" si="6">C71^2</f>
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G100" si="9">D71^2</f>
+        <f t="shared" ref="G71:G100" si="7">D71^2</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2360,7 +2363,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2422,7 +2425,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2495,7 +2498,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I7"/>
+      <selection activeCell="H18" sqref="E12:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2751,7 +2754,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3141,7 +3144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="10:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
       <c r="J18">
         <f>IF(N2&lt;&gt;0,((B2-N2)^2/N2),0)</f>
         <v>6.3868347338935569</v>
@@ -3171,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="10:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
       <c r="J19">
         <f t="shared" ref="J19:J24" si="11">IF(N3&lt;&gt;0,((B3-N3)^2/N3),0)</f>
         <v>0.25021645021645039</v>
@@ -3201,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="10:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
       <c r="J20">
         <f t="shared" si="11"/>
         <v>3.1040816326530614</v>
@@ -3231,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="10:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
       <c r="J21">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -3261,7 +3264,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="10:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
       <c r="J22">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -3291,7 +3297,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="10:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
       <c r="J23">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -3321,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="10:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
       <c r="J24">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -3351,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="10:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
       <c r="P25" t="s">
         <v>28</v>
       </c>
@@ -3360,7 +3369,7 @@
         <v>19.12227341529497</v>
       </c>
     </row>
-    <row r="26" spans="10:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
       <c r="P26" t="s">
         <v>27</v>
       </c>
@@ -3369,7 +3378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="10:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
       <c r="P27" t="s">
         <v>29</v>
       </c>
@@ -3384,10 +3393,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3446,6 +3455,16 @@
       </c>
       <c r="F6" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3461,7 +3480,7 @@
   <dimension ref="A3:F100"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3474,6 +3493,11 @@
         <v>29</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6">
         <f xml:space="preserve"> SUM(B8:B100)</f>

--- a/Notatki/Semestr 3/Inżynierskie zastosowania statystyki/Ćwiczenia/Kolokwium 2/IZS kolos.xlsx
+++ b/Notatki/Semestr 3/Inżynierskie zastosowania statystyki/Ćwiczenia/Kolokwium 2/IZS kolos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xeder\Documents\notes\Studia\Notatki\Semestr 3\Inżynierskie zastosowania statystyki\Ćwiczenia\Kolokwium 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE29DF6-8C6D-439D-A05B-1930438C80E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C463E7B-DBD0-4108-945F-AA94855CE5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="9" xr2:uid="{EEEA31D6-0E80-4109-8014-5AC21CA1198A}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>średnia</t>
   </si>
@@ -262,6 +262,21 @@
   </si>
   <si>
     <t>rozkłądy</t>
+  </si>
+  <si>
+    <t>nieobciążone</t>
+  </si>
+  <si>
+    <t>zakładamy ze rowne</t>
+  </si>
+  <si>
+    <t>zakładamy ze równe</t>
+  </si>
+  <si>
+    <t>zakładamy ze niezależne</t>
+  </si>
+  <si>
+    <t>do inf obszar krytyczny</t>
   </si>
 </sst>
 </file>
@@ -355,6 +370,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>368796</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC6E42C-1EE7-7005-BD38-76028A784BD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3117850" y="311150"/>
+          <a:ext cx="9652496" cy="3657788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -706,7 +770,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,6 +813,17 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">SUMSQ(A2:A6-F2)/(COUNTA(A2:A6)-1)</f>
+        <v>0.628</v>
+      </c>
+      <c r="H3">
+        <f>SQRT(G3)</f>
+        <v>0.792464510246358</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -779,7 +854,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -898,23 +973,23 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C10" si="0">A7-$A$2</f>
+        <f>A7-$A$2</f>
         <v>-1</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D10" si="1">B7-$B$2</f>
+        <f t="shared" ref="D7:D10" si="0">B7-$B$2</f>
         <v>-10</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E70" si="2">C7*D7</f>
+        <f t="shared" ref="E7:E70" si="1">C7*D7</f>
         <v>10</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F70" si="3">C7^2</f>
+        <f t="shared" ref="F7:F70" si="2">C7^2</f>
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G70" si="4">D7^2</f>
+        <f t="shared" ref="G7:G70" si="3">D7^2</f>
         <v>100</v>
       </c>
       <c r="J7" t="s">
@@ -936,23 +1011,23 @@
         <v>40</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C7:C10" si="4">A8-$A$2</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L8" s="2"/>
@@ -965,23 +1040,23 @@
         <v>50</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J9" t="s">
@@ -996,23 +1071,23 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J10" t="s">
@@ -1025,15 +1100,15 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11" t="s">
@@ -1046,169 +1121,169 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L23">
@@ -1222,15 +1297,15 @@
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L24">
@@ -1240,71 +1315,71 @@
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M29" t="s">
@@ -1323,15 +1398,15 @@
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N30">
@@ -1343,15 +1418,15 @@
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M31" t="s">
@@ -1366,15 +1441,15 @@
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N32">
@@ -1389,15 +1464,15 @@
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N33">
@@ -1412,519 +1487,519 @@
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2360,10 +2435,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2376,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1300</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2384,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2392,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2400,7 +2475,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1200</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2409,7 +2484,12 @@
       </c>
       <c r="B6">
         <f>(B1-B4)*SQRT(B3)/B2</f>
-        <v>2</v>
+        <v>0.84852813742385691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2422,10 +2502,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2485,8 +2565,14 @@
         <v>2.1438645980253872</v>
       </c>
     </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2495,10 +2581,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="E12:H18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2512,13 +2598,13 @@
         <v>12</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>6.65</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
       <c r="E1">
-        <v>2.5</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2526,15 +2612,13 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <f>0.9^2</f>
-        <v>0.81</v>
+        <v>0.05</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <f>0.5^2</f>
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -2545,13 +2629,13 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -2570,7 +2654,12 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C7">
         <f>(B1-E1)/(SQRT((B2/B3)+(E2/E3)))</f>
-        <v>3.9528470752104745</v>
+        <v>2.7650415088122178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2583,10 +2672,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2613,7 +2702,6 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <f>10^2</f>
         <v>100</v>
       </c>
       <c r="D2" t="s">
@@ -2656,8 +2744,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C7">
-        <f>(B1-E1)/(SQRT((B3*B2+E3*E2/(B3+E3-2))*((1/B3)+(1/E3))))</f>
-        <v>-1.4635001432602284</v>
+        <f>(B1-E1)/(SQRT(((B3*B2+E3*E2)/(B3+E3-2))*((1/B3)+(1/E3))))</f>
+        <v>-3.9191835884530843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +2766,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2732,8 +2825,8 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C7">
-        <f>(B1-E1)/(SQRT((B3*B2+E3*E2/(B3+E3-2))*((1/B3)+(1/E3))))</f>
-        <v>-1.4635001432602284</v>
+        <f>(B1-E1)/(SQRT(((B3*B2+E3*E2)/(B3+E3-2))*((1/B3)+(1/E3))))</f>
+        <v>-3.9191835884530843</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -2754,7 +2847,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2808,32 +2901,32 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="I2">
         <f>SUM(B2:H2)</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
         <f>$I2*B$9/$I$9</f>
-        <v>3.9666666666666668</v>
+        <v>22.065217391304348</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:T2" si="0">$I2*C$9/$I$9</f>
-        <v>6.5166666666666666</v>
+        <v>5.0434782608695654</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>6.5166666666666666</v>
+        <v>1.8913043478260869</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
@@ -2857,32 +2950,32 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I7" si="1">SUM(B3:H3)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N8" si="2">$I3*B$9/$I$9</f>
-        <v>5.1333333333333337</v>
+        <v>9.1304347826086953</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O8" si="3">$I3*C$9/$I$9</f>
-        <v>8.4333333333333336</v>
+        <v>2.0869565217391304</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P8" si="4">$I3*D$9/$I$9</f>
-        <v>8.4333333333333336</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="5">$I3*E$9/$I$9</f>
@@ -2906,32 +2999,32 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
-        <v>4.9000000000000004</v>
+        <v>3.8043478260869565</v>
       </c>
       <c r="O4">
         <f t="shared" si="3"/>
-        <v>8.0500000000000007</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="P4">
         <f t="shared" si="4"/>
-        <v>8.0500000000000007</v>
+        <v>0.32608695652173914</v>
       </c>
       <c r="Q4">
         <f t="shared" si="5"/>
@@ -3113,15 +3206,15 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:H9" si="9">SUM(C2:C8)</f>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <f t="shared" si="9"/>
@@ -3141,21 +3234,21 @@
       </c>
       <c r="I9">
         <f>SUM(B2:H8)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.35">
       <c r="J18">
         <f>IF(N2&lt;&gt;0,((B2-N2)^2/N2),0)</f>
-        <v>6.3868347338935569</v>
+        <v>0.19329620903833794</v>
       </c>
       <c r="K18">
         <f t="shared" ref="K18:P18" si="10">IF(O2&lt;&gt;0,((C2-O2)^2/O2),0)</f>
-        <v>0.35298380221653874</v>
+        <v>0.18140929535232375</v>
       </c>
       <c r="L18">
         <f t="shared" si="10"/>
-        <v>1.8977408354646206</v>
+        <v>0.6499250374812594</v>
       </c>
       <c r="M18">
         <f t="shared" si="10"/>
@@ -3174,18 +3267,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.35">
       <c r="J19">
         <f t="shared" ref="J19:J24" si="11">IF(N3&lt;&gt;0,((B3-N3)^2/N3),0)</f>
-        <v>0.25021645021645039</v>
+        <v>8.2815734989648102E-2</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19:K24" si="12">IF(O3&lt;&gt;0,((C3-O3)^2/O3),0)</f>
-        <v>1.5084321475625821</v>
+        <v>3.6231884057970967E-3</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19:L24" si="13">IF(P3&lt;&gt;0,((D3-P3)^2/P3),0)</f>
-        <v>0.70210803689064571</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19:M24" si="14">IF(Q3&lt;&gt;0,((E3-Q3)^2/Q3),0)</f>
@@ -3204,18 +3297,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.35">
       <c r="J20">
         <f t="shared" si="11"/>
-        <v>3.1040816326530614</v>
+        <v>0.37577639751552794</v>
       </c>
       <c r="K20">
         <f t="shared" si="12"/>
-        <v>0.52204968944099417</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="L20">
         <f t="shared" si="13"/>
-        <v>4.3978260869565204</v>
+        <v>0.32608695652173914</v>
       </c>
       <c r="M20">
         <f t="shared" si="14"/>
@@ -3234,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.35">
       <c r="J21">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -3264,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>63</v>
       </c>
@@ -3297,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>61</v>
       </c>
@@ -3330,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.35">
       <c r="J24">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -3360,16 +3453,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.35">
       <c r="P25" t="s">
         <v>28</v>
       </c>
       <c r="Q25">
         <f>SUM(J18:P24)</f>
-        <v>19.12227341529497</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
+        <v>3.465106732348112</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.35">
       <c r="P26" t="s">
         <v>27</v>
       </c>
@@ -3377,8 +3470,11 @@
         <f>(COUNTA(B2:H2)-1)*(COUNTA(B2:B8)-1)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="R26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.35">
       <c r="P27" t="s">
         <v>29</v>
       </c>
@@ -3393,7 +3489,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -3465,6 +3561,11 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3480,12 +3581,13 @@
   <dimension ref="A3:F100"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -3501,7 +3603,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6">
         <f xml:space="preserve"> SUM(B8:B100)</f>
-        <v>740</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -3530,7 +3632,7 @@
         <v>39</v>
       </c>
       <c r="B8">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <f>1/5</f>
@@ -3538,15 +3640,15 @@
       </c>
       <c r="D8">
         <f>C8*$B$6</f>
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <f>IF(D8&lt;&gt;0,(B8-D8)^2/D8,0)</f>
-        <v>18.27027027027027</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="F8">
         <f>SUM(E8:E13)</f>
-        <v>35.675675675675677</v>
+        <v>18.285714285714285</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -3554,7 +3656,7 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <f>1/5</f>
@@ -3562,11 +3664,11 @@
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D72" si="0">C9*$B$6</f>
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:E72" si="1">IF(D9&lt;&gt;0,(B9-D9)^2/D9,0)</f>
-        <v>0.97297297297297303</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -3574,7 +3676,7 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <f>1/5</f>
@@ -3582,11 +3684,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.43243243243243246</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -3594,7 +3696,7 @@
         <v>42</v>
       </c>
       <c r="B11">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C12" si="2">1/5</f>
@@ -3602,11 +3704,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.43243243243243246</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -3614,7 +3716,7 @@
         <v>43</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
@@ -3622,11 +3724,11 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>15.567567567567568</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
